--- a/Dictator Game/DictatorGame.xlsx
+++ b/Dictator Game/DictatorGame.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\Helion Lab\Experiment Files\Dictator Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tul00635\Documents\GitHub\Self-Regulation-Psychopy-Files\Dictator Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCEEBAC-68C0-49C7-BD5E-89A1D83521E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +24,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate how many dollars you will give the Receiver:   </t>
-  </si>
-  <si>
-    <t>CueType</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>REGULATE</t>
   </si>
   <si>
-    <t>LOOK</t>
+    <t>REACT</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>000:010</t>
+  </si>
+  <si>
+    <t>CueType1</t>
+  </si>
+  <si>
+    <t>CueType2</t>
+  </si>
+  <si>
+    <t>011:020</t>
+  </si>
+  <si>
+    <t>021:030</t>
+  </si>
+  <si>
+    <t>031:040</t>
+  </si>
+  <si>
+    <t>041:050</t>
+  </si>
+  <si>
+    <t>051:060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,101 +374,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
